--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21A4366-2BAA-4404-88B8-FEC882932E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
-  </si>
-  <si>
-    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2841,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2852,18 +2848,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18">
-        <v>45531</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,57 +2861,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21A4366-2BAA-4404-88B8-FEC882932E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -300,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2837,7 +2841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2848,12 +2852,18 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18">
+        <v>45531</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2861,57 +2871,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
